--- a/bots/crawl_ch/output/bread_coop_2023-01-13.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-01-13.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
         <v>4.5</v>
@@ -1009,7 +1009,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" t="n">
         <v>4.5</v>
@@ -2855,7 +2855,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
         <v>4.5</v>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3488,7 +3488,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E44" t="n">
         <v>4.5</v>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
         <v>5</v>
@@ -3849,7 +3849,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" t="n">
         <v>4.5</v>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4859,7 +4859,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5147,7 +5147,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5512,7 +5512,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E73" t="n">
         <v>5</v>
@@ -5654,7 +5654,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E76" t="n">
         <v>4</v>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6291,7 +6291,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6360,7 +6360,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6644,7 +6644,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6738,7 +6738,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E89" t="n">
         <v>5</v>
@@ -6786,7 +6786,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -6953,10 +6953,10 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E95" t="n">
         <v>4.5</v>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7537,7 +7537,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E100" t="n">
         <v>4.5</v>
@@ -7585,7 +7585,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7654,7 +7654,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7723,7 +7723,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8003,7 +8003,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8072,7 +8072,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8425,7 +8425,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8567,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8636,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9091,10 +9091,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -9143,7 +9143,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9423,7 +9423,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9659,7 +9659,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E130" t="n">
         <v>4.5</v>
@@ -9711,7 +9711,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9870,7 +9870,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E133" t="n">
         <v>4.5</v>
@@ -9922,7 +9922,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -9991,7 +9991,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10060,7 +10060,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10129,7 +10129,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10202,7 +10202,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10770,7 +10770,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10843,7 +10843,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10912,7 +10912,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11054,7 +11054,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11123,7 +11123,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11192,7 +11192,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11334,7 +11334,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11403,7 +11403,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11476,7 +11476,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E156" t="n">
         <v>4</v>
@@ -11545,7 +11545,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11833,7 +11833,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11902,7 +11902,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12044,7 +12044,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12190,7 +12190,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12263,7 +12263,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12332,7 +12332,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E168" t="n">
         <v>5</v>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12478,7 +12478,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12620,7 +12620,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12689,7 +12689,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12758,7 +12758,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12896,7 +12896,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -12965,7 +12965,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13107,7 +13107,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13180,7 +13180,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13322,7 +13322,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13606,7 +13606,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13675,7 +13675,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13696,10 +13696,10 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E187" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13817,7 +13817,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13886,7 +13886,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -13959,7 +13959,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14032,7 +14032,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14101,7 +14101,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14174,7 +14174,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14243,7 +14243,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14312,7 +14312,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14381,7 +14381,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14527,7 +14527,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14600,7 +14600,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14673,7 +14673,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14815,7 +14815,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14884,7 +14884,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -14957,7 +14957,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15026,7 +15026,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15099,7 +15099,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15172,7 +15172,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15241,7 +15241,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15383,7 +15383,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15452,7 +15452,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15521,7 +15521,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15663,7 +15663,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15732,7 +15732,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15878,7 +15878,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -15947,7 +15947,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16020,7 +16020,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16308,7 +16308,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16377,7 +16377,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16398,7 +16398,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E225" t="n">
         <v>4.5</v>
@@ -16446,7 +16446,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16515,7 +16515,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16730,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -16937,7 +16937,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17006,7 +17006,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17079,7 +17079,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17148,7 +17148,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17217,7 +17217,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17286,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17359,7 +17359,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17432,7 +17432,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17501,7 +17501,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17570,7 +17570,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17639,7 +17639,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17781,7 +17781,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17852,7 +17852,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17921,7 +17921,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -17988,7 +17988,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18061,7 +18061,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18130,7 +18130,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18199,7 +18199,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18268,7 +18268,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18410,7 +18410,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18552,7 +18552,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18621,7 +18621,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18690,7 +18690,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18759,7 +18759,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18832,7 +18832,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18901,7 +18901,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -18974,7 +18974,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19043,7 +19043,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19114,7 +19114,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19183,7 +19183,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19252,7 +19252,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19325,7 +19325,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19394,7 +19394,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19467,7 +19467,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19540,7 +19540,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19613,7 +19613,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19686,7 +19686,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19759,7 +19759,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19828,7 +19828,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19897,7 +19897,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -19966,7 +19966,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20039,7 +20039,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20108,7 +20108,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20181,7 +20181,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20250,7 +20250,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20271,10 +20271,10 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E280" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20388,7 +20388,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20457,7 +20457,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20524,7 +20524,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20597,7 +20597,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20670,7 +20670,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20743,7 +20743,7 @@
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20816,7 +20816,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20885,7 +20885,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -20958,7 +20958,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21025,7 +21025,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21094,7 +21094,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21167,7 +21167,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21240,7 +21240,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21309,7 +21309,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21378,7 +21378,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21447,7 +21447,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21520,7 +21520,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21593,7 +21593,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21662,7 +21662,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21735,7 +21735,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21804,7 +21804,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21877,7 +21877,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22015,7 +22015,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22084,7 +22084,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22153,7 +22153,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22222,7 +22222,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22295,7 +22295,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22364,7 +22364,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22437,7 +22437,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22506,7 +22506,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22575,7 +22575,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22644,7 +22644,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22782,7 +22782,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22851,7 +22851,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22924,7 +22924,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23066,7 +23066,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23204,7 +23204,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23273,7 +23273,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23342,7 +23342,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23415,7 +23415,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23488,7 +23488,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23557,7 +23557,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23626,7 +23626,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23695,7 +23695,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23764,7 +23764,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23833,7 +23833,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23902,7 +23902,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -23971,7 +23971,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24040,7 +24040,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24113,7 +24113,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24182,7 +24182,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24251,7 +24251,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24320,7 +24320,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24389,7 +24389,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24458,7 +24458,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24527,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24596,7 +24596,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24665,7 +24665,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24734,7 +24734,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24807,7 +24807,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24876,7 +24876,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -24949,7 +24949,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25018,7 +25018,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25085,7 +25085,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25154,7 +25154,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25221,7 +25221,7 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25290,7 +25290,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25359,7 +25359,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25430,7 +25430,7 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25499,7 +25499,7 @@
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25568,7 +25568,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25635,7 +25635,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25704,7 +25704,7 @@
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25773,7 +25773,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25840,7 +25840,7 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25909,7 +25909,7 @@
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -25982,7 +25982,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26055,7 +26055,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26128,7 +26128,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26197,7 +26197,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26270,7 +26270,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26343,7 +26343,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26412,7 +26412,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26485,7 +26485,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26554,7 +26554,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26625,7 +26625,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26698,7 +26698,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26767,7 +26767,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26840,7 +26840,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26907,7 +26907,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -26980,7 +26980,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27053,7 +27053,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27126,7 +27126,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27195,7 +27195,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27266,7 +27266,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27339,7 +27339,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27408,7 +27408,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27475,7 +27475,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27544,7 +27544,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27565,7 +27565,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E384" t="n">
         <v>4.5</v>
@@ -27617,7 +27617,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27686,7 +27686,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27759,7 +27759,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27832,7 +27832,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27899,7 +27899,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -27968,7 +27968,7 @@
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -28035,7 +28035,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -28104,7 +28104,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -28173,7 +28173,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -28242,7 +28242,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -28311,7 +28311,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -28378,7 +28378,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -28447,7 +28447,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
@@ -28514,7 +28514,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-13 06:49:14</t>
+          <t>2023-01-13 12:56:17</t>
         </is>
       </c>
     </row>
